--- a/medicine/Enfance/Kate_Banks/Kate_Banks.xlsx
+++ b/medicine/Enfance/Kate_Banks/Kate_Banks.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kate Banks, née le 13 février 1960 à Farmington (Maine) et morte le 24 février 2024 en Suisse[1], est une auteure américaine de livres jeunesse.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kate Banks, née le 13 février 1960 à Farmington (Maine) et morte le 24 février 2024 en Suisse, est une auteure américaine de livres jeunesse.
 </t>
         </is>
       </c>
@@ -513,14 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enfance et formation
-Kate Banks a étudié à Wellesley College, près de Boston[2].
-Elle a obtenu une maîtrise en histoire à l'Université Columbia et a travaillé plusieurs années dans une maison d'édition à New York avant de s'installer en Europe[2].
-Vie de famille
-Elle vit durant une partie de sa vie dans le sud de la France avec son mari et ses deux fils, Peter Anton et Maximilien[2],[3],[4]. Son décès est annoncé le 1er mars 2024[5].
-Carrière
-Elle a passé huit ans à Rome, où elle a commencé à écrire des livres pour enfants[2].
-Son The Night Worker remporte l'édition 2001 du prix  Charlotte Zolotov (en), And If the Moon Could Talk remporte l'édition 1998 du Boston Globe-Horn Book Award du meilleur livre illustré[6]. Dillon Dillon est finaliste de l'édition 2002 du Los Angeles Times Book Prize de la fiction pour jeune adulte. Howie Bowles, Secret Agent est en lice pour l'édition 2000 du prix Edgar-Allan-Poe pour le meilleur livre pour la jeunesse[7].
+          <t>Enfance et formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kate Banks a étudié à Wellesley College, près de Boston.
+Elle a obtenu une maîtrise en histoire à l'Université Columbia et a travaillé plusieurs années dans une maison d'édition à New York avant de s'installer en Europe.
 </t>
         </is>
       </c>
@@ -546,10 +558,87 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Vie de famille</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle vit durant une partie de sa vie dans le sud de la France avec son mari et ses deux fils, Peter Anton et Maximilien. Son décès est annoncé le 1er mars 2024.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Kate_Banks</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kate_Banks</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a passé huit ans à Rome, où elle a commencé à écrire des livres pour enfants.
+Son The Night Worker remporte l'édition 2001 du prix  Charlotte Zolotov (en), And If the Moon Could Talk remporte l'édition 1998 du Boston Globe-Horn Book Award du meilleur livre illustré. Dillon Dillon est finaliste de l'édition 2002 du Los Angeles Times Book Prize de la fiction pour jeune adulte. Howie Bowles, Secret Agent est en lice pour l'édition 2000 du prix Edgar-Allan-Poe pour le meilleur livre pour la jeunesse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Kate_Banks</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kate_Banks</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Alphabet Soup, Dragonfly Books, 1988
 Big, Bigger, Biggest Adventure, Random House, 1991
